--- a/Inputdata.xlsx
+++ b/Inputdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Code\hydro_opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF47514D-F5DD-4C19-9A25-58FEC6783A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245F6EF1-D0A2-4460-8CBF-F6B65BD14F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Land</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>CH3OH Schiff Preis</t>
+  </si>
+  <si>
+    <t>H2 Export Limit</t>
+  </si>
+  <si>
+    <t>NH3 Export Limit</t>
+  </si>
+  <si>
+    <t>CH3OH Export Limit</t>
   </si>
 </sst>
 </file>
@@ -384,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,15 +404,18 @@
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,25 +429,34 @@
         <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -449,25 +470,34 @@
         <v>3</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
       <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
         <v>12</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>6</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>7</v>
       </c>
+      <c r="M2">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -481,25 +511,34 @@
         <v>3</v>
       </c>
       <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
       <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
         <v>5</v>
-      </c>
-      <c r="H3">
-        <v>13</v>
       </c>
       <c r="I3">
         <v>6</v>
       </c>
       <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3">
         <v>7</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -513,25 +552,34 @@
         <v>3</v>
       </c>
       <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
       <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>6</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>7</v>
       </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -545,22 +593,31 @@
         <v>9999</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
         <v>15</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Inputdata.xlsx
+++ b/Inputdata.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Code\hydro_opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD0636A-4548-44FD-BB02-C62172F50B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754F76C-FF04-4674-B1CF-9E654AF4C0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$N$114</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -824,11 +827,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1114,26 +1116,25 @@
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -1143,5016 +1144,5017 @@
       <c r="B1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>114.18043096644605</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>14.927617348316431</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>59.152815358267596</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>424367954.73060948</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>204.38301415233775</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>22.055281511186784</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2">
         <v>9.0808033209640158</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>235630231.79297963</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2">
         <v>267.73798541711579</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2">
         <v>10.450495216787981</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2">
         <v>4.050886437663749</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2">
         <v>168775312.66983411</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>111.7431923312148</v>
       </c>
-      <c r="D3" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3">
+        <v>999999</v>
+      </c>
+      <c r="E3">
         <v>91.280551915978748</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>39985652.859716535</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>204.67427833526736</v>
       </c>
-      <c r="H3" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3">
+        <v>999999</v>
+      </c>
+      <c r="I3">
         <v>18.560619531100283</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>22228921.60209183</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>239.35328109911882</v>
       </c>
-      <c r="L3" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="L3">
+        <v>999999</v>
+      </c>
+      <c r="M3">
         <v>8.1965547952609494</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3">
         <v>15895088.557131464</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>175.15924701753354</v>
       </c>
-      <c r="D4" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4">
+        <v>999999</v>
+      </c>
+      <c r="E4">
         <v>87.420062822378654</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>96771073.390288398</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>295.50747433647894</v>
       </c>
-      <c r="H4" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4">
+        <v>999999</v>
+      </c>
+      <c r="I4">
         <v>24.95297002542365</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>54660554.533150814</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4">
         <v>369.78522709569927</v>
       </c>
-      <c r="L4" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="L4">
+        <v>999999</v>
+      </c>
+      <c r="M4">
         <v>11.003531506328008</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4">
         <v>39023504.282256924</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>105.15205106303237</v>
       </c>
-      <c r="D5" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5">
+        <v>999999</v>
+      </c>
+      <c r="E5">
         <v>75.443427507720955</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>2589067138.8552585</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5">
         <v>188.12609596980334</v>
       </c>
-      <c r="H5" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5">
+        <v>999999</v>
+      </c>
+      <c r="I5">
         <v>20.575074737015772</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>1453984523.1345365</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5">
         <v>222.37018909027157</v>
       </c>
-      <c r="L5" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M5" s="2">
+      <c r="L5">
+        <v>999999</v>
+      </c>
+      <c r="M5">
         <v>8.5562598469517948</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5">
         <v>1042260365.0482752</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>112.16689538627715</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>2.5184939513288622</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>61.599535797420167</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>4451900.178278897</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6">
         <v>206.4111341186202</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <v>3.721028733834995</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
         <v>11.204740983457338</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>2434334.2017655424</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6">
         <v>237.66373801971437</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6">
         <v>1.7631419923046263</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6">
         <v>4.9095243563372986</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>1746331.7850772727</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>127.63965379483098</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>17.125758869036261</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>58.756496558314254</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7">
         <v>5101440.8702423582</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7">
         <v>226.06912778468515</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7">
         <v>25.302995390077964</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
         <v>16.945248795398399</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7">
         <v>2903245.2588191642</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7">
         <v>278.6237921394727</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7">
         <v>11.989365547671458</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7">
         <v>7.5985108019998577</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7">
         <v>2069384.2124373105</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>107.34030130528495</v>
       </c>
-      <c r="D8" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8">
+        <v>999999</v>
+      </c>
+      <c r="E8">
         <v>62.818038543432777</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>624231.70158753265</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>187.97895110039042</v>
       </c>
-      <c r="H8" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I8" s="2">
+      <c r="H8">
+        <v>999999</v>
+      </c>
+      <c r="I8">
         <v>11.405371080691605</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>350894.53808713192</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8">
         <v>229.53221470222636</v>
       </c>
-      <c r="L8" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="L8">
+        <v>999999</v>
+      </c>
+      <c r="M8">
         <v>4.6440701473690638</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8">
         <v>250949.14154536289</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>118.40473133852147</v>
       </c>
-      <c r="D9" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9">
+        <v>999999</v>
+      </c>
+      <c r="E9">
         <v>82.686034679196453</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>9125058.3970081527</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>215.94501593965305</v>
       </c>
-      <c r="H9" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I9" s="2">
+      <c r="H9">
+        <v>999999</v>
+      </c>
+      <c r="I9">
         <v>20.218759607392865</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9">
         <v>5086271.4432768077</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9">
         <v>260.84713750274182</v>
       </c>
-      <c r="L9" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9">
+        <v>999999</v>
+      </c>
+      <c r="M9">
         <v>8.6830867808086634</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9">
         <v>3636427.4190016421</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>234.19125082985636</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>5.0369879026577244</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>62.479486043618159</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>3261605.2225893405</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>386.26436181338181</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>7.44205746766999</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>9.2085709295767124</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>1841402.2575179029</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>494.6331410297164</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>3.5262839846092526</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>4.2035250315116039</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>1313855.9461844666</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>108.62192656512525</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>2.2666445561959758</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>51.226035547684688</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>1879368.0046073243</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>193.50927637766418</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>3.3489258604514953</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>5.7279812070806218</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>1038111.6438041013</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>237.18148646141435</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>1.5868277930741637</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>2.6050224775611093</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>745194.13931523846</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>115.13906975189931</v>
       </c>
-      <c r="D12" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12">
+        <v>999999</v>
+      </c>
+      <c r="E12">
         <v>86.467734787310789</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>16478077.335161135</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>207.92321352578944</v>
       </c>
-      <c r="H12" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="H12">
+        <v>999999</v>
+      </c>
+      <c r="I12">
         <v>9.2832777603303338</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>9167985.0560402386</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>261.61340468849102</v>
       </c>
-      <c r="L12" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12">
+        <v>999999</v>
+      </c>
+      <c r="M12">
         <v>3.9044122358238171</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12">
         <v>6548723.342857155</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>120.01313137358764</v>
       </c>
-      <c r="D13" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13">
+        <v>999999</v>
+      </c>
+      <c r="E13">
         <v>82.223915314786993</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>8269150.1564897224</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>218.37824023830663</v>
       </c>
-      <c r="H13" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="H13">
+        <v>999999</v>
+      </c>
+      <c r="I13">
         <v>29.942788877393358</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>4552209.5965933297</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <v>257.46408865507988</v>
       </c>
-      <c r="L13" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L13">
+        <v>999999</v>
+      </c>
+      <c r="M13">
         <v>13.44882666240772</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13">
         <v>3267502.6177577274</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
         <v>116.89224617557487</v>
       </c>
-      <c r="D14" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="D14">
+        <v>999999</v>
+      </c>
+      <c r="E14">
         <v>88.62981363169331</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14">
         <v>62087819.129705921</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>211.89144484177487</v>
       </c>
-      <c r="H14" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I14" s="2">
+      <c r="H14">
+        <v>999999</v>
+      </c>
+      <c r="I14">
         <v>17.283060432328693</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14">
         <v>35265132.96563901</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14">
         <v>245.57129590347105</v>
       </c>
-      <c r="L14" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="L14">
+        <v>999999</v>
+      </c>
+      <c r="M14">
         <v>7.5435513093352373</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14">
         <v>25209643.889480866</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
         <v>112.11596985103871</v>
       </c>
-      <c r="D15" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15">
+        <v>999999</v>
+      </c>
+      <c r="E15">
         <v>70.791518725980694</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15">
         <v>367342470.30117631</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>207.14622432737656</v>
       </c>
-      <c r="H15" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I15" s="2">
+      <c r="H15">
+        <v>999999</v>
+      </c>
+      <c r="I15">
         <v>18.410859507587009</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15">
         <v>204778277.62622559</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15">
         <v>270.09652457819652</v>
       </c>
-      <c r="L15" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="L15">
+        <v>999999</v>
+      </c>
+      <c r="M15">
         <v>8.0943130227233979</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15">
         <v>146966906.0098919</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
         <v>299.94667872434752</v>
       </c>
-      <c r="D16" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16">
+        <v>999999</v>
+      </c>
+      <c r="E16">
         <v>69.785575623497834</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16">
         <v>95458.601219937409</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16">
         <v>464.8327288751459</v>
       </c>
-      <c r="H16" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H16">
+        <v>999999</v>
+      </c>
+      <c r="I16">
         <v>14.200870335556074</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16">
         <v>54151.980229348403</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16">
         <v>606.74868094262172</v>
       </c>
-      <c r="L16" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="L16">
+        <v>999999</v>
+      </c>
+      <c r="M16">
         <v>5.7255573333356606</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16">
         <v>38617.348428395111</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
         <v>106.31051467650651</v>
       </c>
-      <c r="D17" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17">
+        <v>999999</v>
+      </c>
+      <c r="E17">
         <v>60.215316618493318</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17">
         <v>17271160.867977634</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17">
         <v>197.6945377079891</v>
       </c>
-      <c r="H17" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I17" s="2">
+      <c r="H17">
+        <v>999999</v>
+      </c>
+      <c r="I17">
         <v>11.150567687831909</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17">
         <v>9629556.8189540263</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17">
         <v>235.58544666063284</v>
       </c>
-      <c r="L17" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="L17">
+        <v>999999</v>
+      </c>
+      <c r="M17">
         <v>4.8766257847134984</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17">
         <v>6889855.4443524694</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
         <v>106.00255161879522</v>
       </c>
-      <c r="D18" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18">
+        <v>999999</v>
+      </c>
+      <c r="E18">
         <v>87.523132502068393</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18">
         <v>12368965.516245389</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18">
         <v>197.76799471281711</v>
       </c>
-      <c r="H18" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="H18">
+        <v>999999</v>
+      </c>
+      <c r="I18">
         <v>15.872063843258458</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18">
         <v>6808267.3951861458</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18">
         <v>230.11090042274049</v>
       </c>
-      <c r="L18" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L18">
+        <v>999999</v>
+      </c>
+      <c r="M18">
         <v>7.0307296910234864</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18">
         <v>4887106.8042009333</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19">
         <v>182.9362270731697</v>
       </c>
-      <c r="D19" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19">
+        <v>999999</v>
+      </c>
+      <c r="E19">
         <v>82.458930535438625</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19">
         <v>1224624.6718608965</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19">
         <v>312.93067379122459</v>
       </c>
-      <c r="H19" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="H19">
+        <v>999999</v>
+      </c>
+      <c r="I19">
         <v>14.895578507296348</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19">
         <v>668130.40866950375</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19">
         <v>390.51729228437983</v>
       </c>
-      <c r="L19" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="L19">
+        <v>999999</v>
+      </c>
+      <c r="M19">
         <v>6.0578464497990545</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19">
         <v>480133.18418144004</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>112.38016965027228</v>
       </c>
-      <c r="D20" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="D20">
+        <v>999999</v>
+      </c>
+      <c r="E20">
         <v>85.878353320341475</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20">
         <v>12961155.166707659</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20">
         <v>204.28009235469096</v>
       </c>
-      <c r="H20" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I20" s="2">
+      <c r="H20">
+        <v>999999</v>
+      </c>
+      <c r="I20">
         <v>11.140329793672166</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20">
         <v>7186715.0974790491</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20">
         <v>252.8664425121847</v>
       </c>
-      <c r="L20" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="L20">
+        <v>999999</v>
+      </c>
+      <c r="M20">
         <v>4.7505079719760701</v>
       </c>
-      <c r="N20" s="2">
+      <c r="N20">
         <v>5171925.6123989029</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21">
         <v>105.37691893629409</v>
       </c>
-      <c r="D21" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21">
+        <v>999999</v>
+      </c>
+      <c r="E21">
         <v>58.694858777565543</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21">
         <v>188813851.76782891</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21">
         <v>177.19818106369732</v>
       </c>
-      <c r="H21" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21">
+        <v>999999</v>
+      </c>
+      <c r="I21">
         <v>15.608627851044474</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21">
         <v>106219535.56018357</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21">
         <v>231.0200097663465</v>
       </c>
-      <c r="L21" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="L21">
+        <v>999999</v>
+      </c>
+      <c r="M21">
         <v>7.0269456994159061</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21">
         <v>75681750.434494585</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>109.5427004576419</v>
       </c>
-      <c r="D22" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22">
+        <v>999999</v>
+      </c>
+      <c r="E22">
         <v>91.29967065169447</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22">
         <v>83117743.606003851</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22">
         <v>189.84130912191259</v>
       </c>
-      <c r="H22" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I22" s="2">
+      <c r="H22">
+        <v>999999</v>
+      </c>
+      <c r="I22">
         <v>20.538796261932454</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22">
         <v>46346029.787613533</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22">
         <v>239.14006401223415</v>
       </c>
-      <c r="L22" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="L22">
+        <v>999999</v>
+      </c>
+      <c r="M22">
         <v>9.1911889706378087</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22">
         <v>33206375.459616888</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23">
         <v>100.54689360283768</v>
       </c>
-      <c r="D23" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E23" s="2">
+      <c r="D23">
+        <v>999999</v>
+      </c>
+      <c r="E23">
         <v>66.011210626549087</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23">
         <v>65734341.863960274</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23">
         <v>184.36995124287705</v>
       </c>
-      <c r="H23" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I23" s="2">
+      <c r="H23">
+        <v>999999</v>
+      </c>
+      <c r="I23">
         <v>12.048217788579354</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23">
         <v>37256587.10022632</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23">
         <v>223.11824554916842</v>
       </c>
-      <c r="L23" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="L23">
+        <v>999999</v>
+      </c>
+      <c r="M23">
         <v>4.9698816642161603</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23">
         <v>26610472.151597831</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24">
         <v>86.532935876908823</v>
       </c>
-      <c r="D24" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E24" s="2">
+      <c r="D24">
+        <v>999999</v>
+      </c>
+      <c r="E24">
         <v>90.331306840586592</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24">
         <v>1652755017.9533837</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24">
         <v>164.44558917826393</v>
       </c>
-      <c r="H24" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I24" s="2">
+      <c r="H24">
+        <v>999999</v>
+      </c>
+      <c r="I24">
         <v>26.224001026510901</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24">
         <v>922712115.07785428</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24">
         <v>214.84637665574186</v>
       </c>
-      <c r="L24" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M24" s="2">
+      <c r="L24">
+        <v>999999</v>
+      </c>
+      <c r="M24">
         <v>11.270856341470582</v>
       </c>
-      <c r="N24" s="2">
+      <c r="N24">
         <v>657905207.8091538</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25">
         <v>107.41992162137828</v>
       </c>
-      <c r="D25" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25">
+        <v>999999</v>
+      </c>
+      <c r="E25">
         <v>65.813301465867596</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25">
         <v>13980170.988699978</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25">
         <v>191.81162373269046</v>
       </c>
-      <c r="H25" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I25" s="2">
+      <c r="H25">
+        <v>999999</v>
+      </c>
+      <c r="I25">
         <v>15.136334782153671</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25">
         <v>7839827.077654779</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25">
         <v>229.57558751299084</v>
       </c>
-      <c r="L25" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="L25">
+        <v>999999</v>
+      </c>
+      <c r="M25">
         <v>6.7268961932876747</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25">
         <v>5593530.7734303344</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26">
         <v>113.25701452074793</v>
       </c>
-      <c r="D26" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="D26">
+        <v>999999</v>
+      </c>
+      <c r="E26">
         <v>84.178263685375384</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26">
         <v>22916292.355971988</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26">
         <v>206.44945999999999</v>
       </c>
-      <c r="H26" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I26" s="2">
+      <c r="H26">
+        <v>999999</v>
+      </c>
+      <c r="I26">
         <v>9.47197267652707</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26">
         <v>12675418.098506084</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26">
         <v>253.69362863727014</v>
       </c>
-      <c r="L26" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="L26">
+        <v>999999</v>
+      </c>
+      <c r="M26">
         <v>3.9170565091821414</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26">
         <v>9102993.3377850093</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27">
         <v>139.33352853354634</v>
       </c>
-      <c r="D27" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E27" s="2">
+      <c r="D27">
+        <v>999999</v>
+      </c>
+      <c r="E27">
         <v>59.814611155236243</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27">
         <v>1920487.1042148503</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27">
         <v>246.56753860123774</v>
       </c>
-      <c r="H27" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I27" s="2">
+      <c r="H27">
+        <v>999999</v>
+      </c>
+      <c r="I27">
         <v>9.637507192404497</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27">
         <v>1072141.3179060258</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27">
         <v>304.95556415802048</v>
       </c>
-      <c r="L27" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="L27">
+        <v>999999</v>
+      </c>
+      <c r="M27">
         <v>4.1711052787446201</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27">
         <v>763329.61204898369</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28">
         <v>118.79855474116513</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>2.5184939513288622</v>
       </c>
-      <c r="E28" s="2">
-        <v>999999</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28">
+        <v>999999</v>
+      </c>
+      <c r="F28">
         <v>542363.07530073903</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28">
         <v>198.53498029522723</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28">
         <v>3.721028733834995</v>
       </c>
-      <c r="I28" s="2">
-        <v>999999</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28">
+        <v>999999</v>
+      </c>
+      <c r="J28">
         <v>299125.16628328129</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28">
         <v>258.15129520520674</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28">
         <v>1.7631419923046263</v>
       </c>
-      <c r="M28" s="2">
-        <v>999999</v>
-      </c>
-      <c r="N28" s="2">
+      <c r="M28">
+        <v>999999</v>
+      </c>
+      <c r="N28">
         <v>215073.24623265525</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29">
         <v>98.96258800679982</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29">
         <v>2.7703433464617482</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29">
         <v>50.182023998527548</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29">
         <v>9507925.445781365</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29">
         <v>171.33440249401264</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29">
         <v>4.0931316072184947</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29">
         <v>4.9499253988346332</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29">
         <v>5296041.5313000195</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29">
         <v>212.45111876339641</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29">
         <v>1.939456191535089</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29">
         <v>2.2166361321263857</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29">
         <v>3791669.0319525623</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30">
         <v>115.37520593618112</v>
       </c>
-      <c r="D30" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="D30">
+        <v>999999</v>
+      </c>
+      <c r="E30">
         <v>63.251172871806425</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30">
         <v>2047076.2190875416</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30">
         <v>211.41549674926608</v>
       </c>
-      <c r="H30" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I30" s="2">
+      <c r="H30">
+        <v>999999</v>
+      </c>
+      <c r="I30">
         <v>7.6085414169264576</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30">
         <v>1131029.9268080832</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30">
         <v>248.59904690440743</v>
       </c>
-      <c r="L30" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="L30">
+        <v>999999</v>
+      </c>
+      <c r="M30">
         <v>3.2163525380630076</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30">
         <v>813592.84569062304</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31">
         <v>135.94060032691718</v>
       </c>
-      <c r="D31" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="D31">
+        <v>999999</v>
+      </c>
+      <c r="E31">
         <v>70.897287370734958</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31">
         <v>574364846.63079643</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31">
         <v>248.55978088051089</v>
       </c>
-      <c r="H31" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I31" s="2">
+      <c r="H31">
+        <v>999999</v>
+      </c>
+      <c r="I31">
         <v>9.3540979637715189</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31">
         <v>325193847.11808652</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31">
         <v>302.20910933549635</v>
       </c>
-      <c r="L31" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="L31">
+        <v>999999</v>
+      </c>
+      <c r="M31">
         <v>4.0001032762320943</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31">
         <v>232035517.72978088</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32">
         <v>626.94036162144982</v>
       </c>
-      <c r="D32" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E32" s="2">
+      <c r="D32">
+        <v>999999</v>
+      </c>
+      <c r="E32">
         <v>83.330964952698196</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32">
         <v>45721.896153117726</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32">
         <v>900.09507578675596</v>
       </c>
-      <c r="H32" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I32" s="2">
+      <c r="H32">
+        <v>999999</v>
+      </c>
+      <c r="I32">
         <v>9.12847869291212</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32">
         <v>26519.965937942714</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32">
         <v>1227.4116021140899</v>
       </c>
-      <c r="L32" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="L32">
+        <v>999999</v>
+      </c>
+      <c r="M32">
         <v>3.7878928509390608</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32">
         <v>18813.657046413209</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33">
         <v>109.20232423062998</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33">
         <v>7.5554818539865867</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33">
         <v>52.236850087346753</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33">
         <v>3383140.8960559857</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33">
         <v>193.56625304271725</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33">
         <v>11.163086201504985</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33">
         <v>5.5546774824444807</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33">
         <v>1865880.5113078062</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33">
         <v>238.90801319090497</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33">
         <v>5.2894259769138792</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33">
         <v>2.4605830070666515</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33">
         <v>1339644.9834525588</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34">
         <v>116.59020745232439</v>
       </c>
-      <c r="D34" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D34">
+        <v>999999</v>
+      </c>
+      <c r="E34">
         <v>90.2731898444313</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34">
         <v>78630961.139500618</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34">
         <v>214.29224201476239</v>
       </c>
-      <c r="H34" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I34" s="2">
+      <c r="H34">
+        <v>999999</v>
+      </c>
+      <c r="I34">
         <v>15.693234236269848</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34">
         <v>43240667.132783368</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34">
         <v>257.79374145731884</v>
       </c>
-      <c r="L34" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="L34">
+        <v>999999</v>
+      </c>
+      <c r="M34">
         <v>6.8854002620418884</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34">
         <v>31056568.326488357</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35">
         <v>104.83863592661613</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35">
         <v>5.4117398026154593</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35">
         <v>51.236600173576669</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35">
         <v>11983359.298014663</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35">
         <v>189.21327500214218</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35">
         <v>7.9957465432646364</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35">
         <v>5.3942450352913669</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35">
         <v>6559477.5839572772</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35">
         <v>230.76038142168514</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35">
         <v>3.7886395130641808</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35">
         <v>2.3837131477701878</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35">
         <v>4719057.5502124606</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36">
         <v>102.41189312252322</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36">
         <v>3.0221927415946346</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36">
         <v>53.970584056311672</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36">
         <v>83759918.35571073</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36">
         <v>187.38379964335945</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36">
         <v>4.4652344806019935</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36">
         <v>10.44359846045324</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36">
         <v>45913926.147439152</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36">
         <v>222.40774322314365</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36">
         <v>2.1157703907655514</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36">
         <v>4.8336892112568215</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36">
         <v>32862353.110671088</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37">
         <v>119.67997648455535</v>
       </c>
-      <c r="D37" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37">
+        <v>999999</v>
+      </c>
+      <c r="E37">
         <v>79.410865100209378</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37">
         <v>903617.03665973165</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37">
         <v>215.43550259364983</v>
       </c>
-      <c r="H37" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I37" s="2">
+      <c r="H37">
+        <v>999999</v>
+      </c>
+      <c r="I37">
         <v>7.2481236835248533</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37">
         <v>500573.51077663241</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37">
         <v>255.81233792227377</v>
       </c>
-      <c r="L37" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="L37">
+        <v>999999</v>
+      </c>
+      <c r="M37">
         <v>3.0808250611275887</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37">
         <v>359692.77989653469</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38">
         <v>138.35730785918898</v>
       </c>
-      <c r="D38" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E38" s="2">
+      <c r="D38">
+        <v>999999</v>
+      </c>
+      <c r="E38">
         <v>56.603038944256852</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38">
         <v>3533862.7876727944</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38">
         <v>242.51519287391059</v>
       </c>
-      <c r="H38" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="H38">
+        <v>999999</v>
+      </c>
+      <c r="I38">
         <v>11.428449862736112</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38">
         <v>2010614.3675723325</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38">
         <v>304.59961720952504</v>
       </c>
-      <c r="L38" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="L38">
+        <v>999999</v>
+      </c>
+      <c r="M38">
         <v>4.9699179962432778</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38">
         <v>1433305.4098128546</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39">
         <v>103.75573948296437</v>
       </c>
-      <c r="D39" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E39" s="2">
-        <v>999999</v>
-      </c>
-      <c r="F39" s="2">
+      <c r="D39">
+        <v>999999</v>
+      </c>
+      <c r="E39">
+        <v>999999</v>
+      </c>
+      <c r="F39">
         <v>8797746.2984099556</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39">
         <v>180.16379928919037</v>
       </c>
-      <c r="H39" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I39" s="2">
-        <v>999999</v>
-      </c>
-      <c r="J39" s="2">
+      <c r="H39">
+        <v>999999</v>
+      </c>
+      <c r="I39">
+        <v>999999</v>
+      </c>
+      <c r="J39">
         <v>4865944.6897454644</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39">
         <v>221.03474358340782</v>
       </c>
-      <c r="L39" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M39" s="2">
-        <v>999999</v>
-      </c>
-      <c r="N39" s="2">
+      <c r="L39">
+        <v>999999</v>
+      </c>
+      <c r="M39">
+        <v>999999</v>
+      </c>
+      <c r="N39">
         <v>3498734.8294080035</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40">
         <v>120.23186513695046</v>
       </c>
-      <c r="D40" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E40" s="2">
+      <c r="D40">
+        <v>999999</v>
+      </c>
+      <c r="E40">
         <v>85.910475984032345</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40">
         <v>32255064.581829492</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40">
         <v>215.64140080945367</v>
       </c>
-      <c r="H40" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I40" s="2">
+      <c r="H40">
+        <v>999999</v>
+      </c>
+      <c r="I40">
         <v>8.6734431064431856</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40">
         <v>17958694.05362846</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40">
         <v>278.18240941214708</v>
       </c>
-      <c r="L40" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M40" s="2">
+      <c r="L40">
+        <v>999999</v>
+      </c>
+      <c r="M40">
         <v>3.6273295330633428</v>
       </c>
-      <c r="N40" s="2">
+      <c r="N40">
         <v>12856923.441754179</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41">
         <v>124.24400528426213</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41">
         <v>8.5628794345181305</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41">
         <v>64.524938435746435</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41">
         <v>57683392.0341397</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41">
         <v>231.05892696857509</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41">
         <v>12.651497695038982</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41">
         <v>7.6545553859490783</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41">
         <v>32566832.695199274</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41">
         <v>267.30719255149035</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41">
         <v>5.9946827738357289</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41">
         <v>3.2537339579652835</v>
       </c>
-      <c r="N41" s="2">
+      <c r="N41">
         <v>23172896.420626882</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42">
         <v>130.78336885801303</v>
       </c>
-      <c r="D42" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E42" s="2">
+      <c r="D42">
+        <v>999999</v>
+      </c>
+      <c r="E42">
         <v>80.063919962689425</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42">
         <v>6817779.6354098897</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42">
         <v>231.3070813832089</v>
       </c>
-      <c r="H42" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I42" s="2">
+      <c r="H42">
+        <v>999999</v>
+      </c>
+      <c r="I42">
         <v>7.5979594063444473</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42">
         <v>3751153.242358081</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42">
         <v>286.22544655742803</v>
       </c>
-      <c r="L42" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M42" s="2">
+      <c r="L42">
+        <v>999999</v>
+      </c>
+      <c r="M42">
         <v>3.2123733964665377</v>
       </c>
-      <c r="N42" s="2">
+      <c r="N42">
         <v>2688840.1953536849</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43">
         <v>140.5387926651332</v>
       </c>
-      <c r="D43" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E43" s="2">
+      <c r="D43">
+        <v>999999</v>
+      </c>
+      <c r="E43">
         <v>63.862528136148953</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43">
         <v>2900589.6689774012</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43">
         <v>235.34659445203638</v>
       </c>
-      <c r="H43" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I43" s="2">
+      <c r="H43">
+        <v>999999</v>
+      </c>
+      <c r="I43">
         <v>8.3642283217536466</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43">
         <v>1635332.2335006939</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43">
         <v>316.02593318737922</v>
       </c>
-      <c r="L43" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M43" s="2">
+      <c r="L43">
+        <v>999999</v>
+      </c>
+      <c r="M43">
         <v>3.5329217857265713</v>
       </c>
-      <c r="N43" s="2">
+      <c r="N43">
         <v>1167834.363568017</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44">
         <v>116.60483543455884</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44">
         <v>2.5184939513288622</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44">
         <v>61.255713537526859</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44">
         <v>8214387.7348131426</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44">
         <v>215.18470874710766</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44">
         <v>3.721028733834995</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44">
         <v>11.956872521427405</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44">
         <v>4551401.5122124804</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44">
         <v>247.50411600724294</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44">
         <v>1.7631419923046263</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44">
         <v>5.2659082472418328</v>
       </c>
-      <c r="N44" s="2">
+      <c r="N44">
         <v>3272301.5143538644</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45">
         <v>101.66916830573659</v>
       </c>
-      <c r="D45" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E45" s="2">
+      <c r="D45">
+        <v>999999</v>
+      </c>
+      <c r="E45">
         <v>52.841300237561732</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45">
         <v>3830542.8602762911</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45">
         <v>175.55468427078739</v>
       </c>
-      <c r="H45" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I45" s="2">
+      <c r="H45">
+        <v>999999</v>
+      </c>
+      <c r="I45">
         <v>5.4463852793615581</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45">
         <v>2157068.1191501562</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45">
         <v>223.1880783813663</v>
       </c>
-      <c r="L45" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M45" s="2">
+      <c r="L45">
+        <v>999999</v>
+      </c>
+      <c r="M45">
         <v>2.4415216789994649</v>
       </c>
-      <c r="N45" s="2">
+      <c r="N45">
         <v>1540157.3704466147</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46">
         <v>99.902856486325277</v>
       </c>
-      <c r="D46" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E46" s="2">
+      <c r="D46">
+        <v>999999</v>
+      </c>
+      <c r="E46">
         <v>79.559954151583398</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46">
         <v>150784075.65093002</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46">
         <v>185.23070126131091</v>
       </c>
-      <c r="H46" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I46" s="2">
+      <c r="H46">
+        <v>999999</v>
+      </c>
+      <c r="I46">
         <v>21.04752683967936</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46">
         <v>84016239.823591903</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46">
         <v>215.44979728454504</v>
       </c>
-      <c r="L46" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M46" s="2">
+      <c r="L46">
+        <v>999999</v>
+      </c>
+      <c r="M46">
         <v>9.2248183142367193</v>
       </c>
-      <c r="N46" s="2">
+      <c r="N46">
         <v>60203254.805041254</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47">
         <v>192.644387987089</v>
       </c>
-      <c r="D47" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E47" s="2">
+      <c r="D47">
+        <v>999999</v>
+      </c>
+      <c r="E47">
         <v>76.698227844490731</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47">
         <v>49900145.247902758</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47">
         <v>314.66982991391387</v>
       </c>
-      <c r="H47" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I47" s="2">
+      <c r="H47">
+        <v>999999</v>
+      </c>
+      <c r="I47">
         <v>13.554735306668736</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47">
         <v>28062171.837745097</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47">
         <v>400.0964558978954</v>
       </c>
-      <c r="L47" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M47" s="2">
+      <c r="L47">
+        <v>999999</v>
+      </c>
+      <c r="M47">
         <v>5.4522931718375771</v>
       </c>
-      <c r="N47" s="2">
+      <c r="N47">
         <v>20028964.438672967</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>106</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48">
         <v>168.63213270208445</v>
       </c>
-      <c r="D48" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E48" s="2">
+      <c r="D48">
+        <v>999999</v>
+      </c>
+      <c r="E48">
         <v>71.787801785685105</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48">
         <v>431965517.94448304</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48">
         <v>305.25018785639526</v>
       </c>
-      <c r="H48" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I48" s="2">
+      <c r="H48">
+        <v>999999</v>
+      </c>
+      <c r="I48">
         <v>22.595718044155866</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48">
         <v>243640961.64730296</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48">
         <v>360.51196155857036</v>
       </c>
-      <c r="L48" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M48" s="2">
+      <c r="L48">
+        <v>999999</v>
+      </c>
+      <c r="M48">
         <v>9.9677225164094594</v>
       </c>
-      <c r="N48" s="2">
+      <c r="N48">
         <v>173797790.56928569</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49">
         <v>105.19688370695708</v>
       </c>
-      <c r="D49" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E49" s="2">
+      <c r="D49">
+        <v>999999</v>
+      </c>
+      <c r="E49">
         <v>69.739795030410846</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49">
         <v>96423050.098265395</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49">
         <v>189.4027864293931</v>
       </c>
-      <c r="H49" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I49" s="2">
+      <c r="H49">
+        <v>999999</v>
+      </c>
+      <c r="I49">
         <v>16.414947940130936</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49">
         <v>54305224.03067147</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49">
         <v>231.29027826176628</v>
       </c>
-      <c r="L49" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M49" s="2">
+      <c r="L49">
+        <v>999999</v>
+      </c>
+      <c r="M49">
         <v>6.9937662189748799</v>
       </c>
-      <c r="N49" s="2">
+      <c r="N49">
         <v>38721095.982301861</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>109</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50">
         <v>123.18388722321478</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50">
         <v>7.0114871604995521</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50">
         <v>52.981695765210276</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50">
         <v>4235918.8272843268</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50">
         <v>208.84339097494774</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50">
         <v>10.359343994996625</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50">
         <v>5.2726319187185737</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50">
         <v>2368904.2656659493</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50">
         <v>259.52457358105215</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50">
         <v>4.9085873065760799</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50">
         <v>2.3379831036466423</v>
       </c>
-      <c r="N50" s="2">
+      <c r="N50">
         <v>1694125.1931380513</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>111</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>112</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51">
         <v>86.743649286383317</v>
       </c>
-      <c r="D51" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E51" s="2">
+      <c r="D51">
+        <v>999999</v>
+      </c>
+      <c r="E51">
         <v>58.084496303212482</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51">
         <v>8819400.0547449682</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51">
         <v>163.01982564188836</v>
       </c>
-      <c r="H51" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I51" s="2">
+      <c r="H51">
+        <v>999999</v>
+      </c>
+      <c r="I51">
         <v>8.56601165094777</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51">
         <v>4999517.8725959957</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51">
         <v>186.70151536858432</v>
       </c>
-      <c r="L51" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M51" s="2">
+      <c r="L51">
+        <v>999999</v>
+      </c>
+      <c r="M51">
         <v>3.6149488876079063</v>
       </c>
-      <c r="N51" s="2">
+      <c r="N51">
         <v>3557015.6574277068</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>113</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>114</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52">
         <v>97.979670640117149</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52">
         <v>4.5332891123919516</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52">
         <v>55.446908707761175</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52">
         <v>56200863.427290149</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52">
         <v>182.70555976772479</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52">
         <v>6.6978517209029906</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52">
         <v>6.7879521320977299</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52">
         <v>31470572.243603714</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52">
         <v>237.98344826337635</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52">
         <v>3.1736555861483273</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52">
         <v>2.9180289943716948</v>
       </c>
-      <c r="N52" s="2">
+      <c r="N52">
         <v>22506119.233416725</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>116</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53">
         <v>146.18102478953682</v>
       </c>
-      <c r="D53" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D53">
+        <v>999999</v>
+      </c>
+      <c r="E53">
         <v>78.346903511263761</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53">
         <v>3568687.1102940259</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53">
         <v>243.17106519913187</v>
       </c>
-      <c r="H53" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I53" s="2">
+      <c r="H53">
+        <v>999999</v>
+      </c>
+      <c r="I53">
         <v>18.735479857656159</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53">
         <v>2030146.1380145943</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53">
         <v>310.49198922863371</v>
       </c>
-      <c r="L53" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M53" s="2">
+      <c r="L53">
+        <v>999999</v>
+      </c>
+      <c r="M53">
         <v>7.6752584314711045</v>
       </c>
-      <c r="N53" s="2">
+      <c r="N53">
         <v>1445457.0722053447</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" t="s">
         <v>117</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54">
         <v>135.71776755104153</v>
       </c>
-      <c r="D54" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E54" s="2">
+      <c r="D54">
+        <v>999999</v>
+      </c>
+      <c r="E54">
         <v>70.223009976819512</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54">
         <v>771700744.64631546</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54">
         <v>238.64103758129065</v>
       </c>
-      <c r="H54" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I54" s="2">
+      <c r="H54">
+        <v>999999</v>
+      </c>
+      <c r="I54">
         <v>30.991909003901476</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54">
         <v>432503744.05192071</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54">
         <v>294.27361049774572</v>
       </c>
-      <c r="L54" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M54" s="2">
+      <c r="L54">
+        <v>999999</v>
+      </c>
+      <c r="M54">
         <v>14.254266034430284</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54">
         <v>308565528.14757121</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>119</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55">
         <v>115.2618300103628</v>
       </c>
-      <c r="D55" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E55" s="2">
+      <c r="D55">
+        <v>999999</v>
+      </c>
+      <c r="E55">
         <v>92.040032653854283</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55">
         <v>197232243.02241579</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55">
         <v>209.94920734449735</v>
       </c>
-      <c r="H55" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I55" s="2">
+      <c r="H55">
+        <v>999999</v>
+      </c>
+      <c r="I55">
         <v>15.181362312549217</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55">
         <v>109932182.43333365</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55">
         <v>248.74499130524524</v>
       </c>
-      <c r="L55" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M55" s="2">
+      <c r="L55">
+        <v>999999</v>
+      </c>
+      <c r="M55">
         <v>6.4386176776556301</v>
       </c>
-      <c r="N55" s="2">
+      <c r="N55">
         <v>78814330.274572685</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>121</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56">
         <v>92.543557958181026</v>
       </c>
-      <c r="D56" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E56" s="2">
+      <c r="D56">
+        <v>999999</v>
+      </c>
+      <c r="E56">
         <v>65.258063583303581</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56">
         <v>20232555.101477493</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56">
         <v>171.74214664178515</v>
       </c>
-      <c r="H56" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I56" s="2">
+      <c r="H56">
+        <v>999999</v>
+      </c>
+      <c r="I56">
         <v>12.518653303145825</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56">
         <v>11415057.022277812</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56">
         <v>199.33862508560725</v>
       </c>
-      <c r="L56" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M56" s="2">
+      <c r="L56">
+        <v>999999</v>
+      </c>
+      <c r="M56">
         <v>5.1488504808711761</v>
       </c>
-      <c r="N56" s="2">
+      <c r="N56">
         <v>8149849.2241615746</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57">
         <v>110.79075171410021</v>
       </c>
-      <c r="D57" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E57" s="2">
+      <c r="D57">
+        <v>999999</v>
+      </c>
+      <c r="E57">
         <v>70.850517929732632</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57">
         <v>24867061.223802589</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57">
         <v>202.46369098417287</v>
       </c>
-      <c r="H57" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I57" s="2">
+      <c r="H57">
+        <v>999999</v>
+      </c>
+      <c r="I57">
         <v>31.919040523223806</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57">
         <v>14011018.960154947</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57">
         <v>251.42262375575092</v>
       </c>
-      <c r="L57" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M57" s="2">
+      <c r="L57">
+        <v>999999</v>
+      </c>
+      <c r="M57">
         <v>14.693570493232906</v>
       </c>
-      <c r="N57" s="2">
+      <c r="N57">
         <v>10028389.887437662</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>126</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58">
         <v>99.111638169778928</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58">
         <v>12.995428788856929</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58">
         <v>59.349282304880504</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58">
         <v>171213575.3200455</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58">
         <v>186.19887000260624</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58">
         <v>19.200508266588574</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58">
         <v>7.8834242812823723</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58">
         <v>95846528.734978095</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58">
         <v>213.66470141459621</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58">
         <v>9.097812680291872</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58">
         <v>3.4007667768490752</v>
       </c>
-      <c r="N58" s="2">
+      <c r="N58">
         <v>68318172.802057117</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59">
         <v>111.99895338752344</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59">
         <v>4.785138507524838</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59">
         <v>52.938000523836109</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59">
         <v>6984742.7731288383</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59">
         <v>205.30957943870104</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59">
         <v>7.0699545942864903</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59">
         <v>5.2663221815620611</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59">
         <v>3787416.1199483937</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59">
         <v>248.65465430467628</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59">
         <v>3.3499697853787898</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59">
         <v>2.3356104602451175</v>
       </c>
-      <c r="N59" s="2">
+      <c r="N59">
         <v>2740973.560288209</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>130</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60">
         <v>136.49645148743767</v>
       </c>
-      <c r="D60" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E60" s="2">
+      <c r="D60">
+        <v>999999</v>
+      </c>
+      <c r="E60">
         <v>91.184198081751688</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60">
         <v>16802544.251818456</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60">
         <v>241.0812366727869</v>
       </c>
-      <c r="H60" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I60" s="2">
+      <c r="H60">
+        <v>999999</v>
+      </c>
+      <c r="I60">
         <v>14.233513982464263</v>
       </c>
-      <c r="J60" s="2">
+      <c r="J60">
         <v>9407393.6431116275</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60">
         <v>297.68539406372082</v>
       </c>
-      <c r="L60" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M60" s="2">
+      <c r="L60">
+        <v>999999</v>
+      </c>
+      <c r="M60">
         <v>5.9134926289897658</v>
       </c>
-      <c r="N60" s="2">
+      <c r="N60">
         <v>6728727.089725364</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>131</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>132</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61">
         <v>283.44540943933168</v>
       </c>
-      <c r="D61" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="D61">
+        <v>999999</v>
+      </c>
+      <c r="E61">
         <v>74.685551348970293</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61">
         <v>4150009.5752495262</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61">
         <v>447.49835888008266</v>
       </c>
-      <c r="H61" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I61" s="2">
+      <c r="H61">
+        <v>999999</v>
+      </c>
+      <c r="I61">
         <v>13.505086905142388</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61">
         <v>2333455.5062744925</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61">
         <v>577.84188017001611</v>
       </c>
-      <c r="L61" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M61" s="2">
+      <c r="L61">
+        <v>999999</v>
+      </c>
+      <c r="M61">
         <v>5.4810165721236714</v>
       </c>
-      <c r="N61" s="2">
+      <c r="N61">
         <v>1669720.5003475093</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62">
         <v>119.9322993489963</v>
       </c>
-      <c r="D62" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="D62">
+        <v>999999</v>
+      </c>
+      <c r="E62">
         <v>84.987308561816121</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62">
         <v>82105157.731387645</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62">
         <v>203.57973684129399</v>
       </c>
-      <c r="H62" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I62" s="2">
+      <c r="H62">
+        <v>999999</v>
+      </c>
+      <c r="I62">
         <v>13.961723286892648</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62">
         <v>46070078.008035168</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62">
         <v>258.84431892765446</v>
       </c>
-      <c r="L62" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M62" s="2">
+      <c r="L62">
+        <v>999999</v>
+      </c>
+      <c r="M62">
         <v>6.2276983050989481</v>
       </c>
-      <c r="N62" s="2">
+      <c r="N62">
         <v>32959188.022127047</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>135</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63">
         <v>110.02693915567426</v>
       </c>
-      <c r="D63" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="D63">
+        <v>999999</v>
+      </c>
+      <c r="E63">
         <v>80.995671634741882</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63">
         <v>108380568.31992732</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63">
         <v>187.19423481987099</v>
       </c>
-      <c r="H63" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I63" s="2">
+      <c r="H63">
+        <v>999999</v>
+      </c>
+      <c r="I63">
         <v>10.482831484768569</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63">
         <v>61305014.544820532</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63">
         <v>237.89362415169845</v>
       </c>
-      <c r="L63" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M63" s="2">
+      <c r="L63">
+        <v>999999</v>
+      </c>
+      <c r="M63">
         <v>4.6632224031590406</v>
       </c>
-      <c r="N63" s="2">
+      <c r="N63">
         <v>43726753.498399489</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>137</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>138</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64">
         <v>92.940465372072083</v>
       </c>
-      <c r="D64" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E64" s="2">
+      <c r="D64">
+        <v>999999</v>
+      </c>
+      <c r="E64">
         <v>66.089899985292263</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64">
         <v>716327938.29107714</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64">
         <v>174.38421292093534</v>
       </c>
-      <c r="H64" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I64" s="2">
+      <c r="H64">
+        <v>999999</v>
+      </c>
+      <c r="I64">
         <v>13.724236869169925</v>
       </c>
-      <c r="J64" s="2">
+      <c r="J64">
         <v>398934738.15398014</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64">
         <v>201.04162204671144</v>
       </c>
-      <c r="L64" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M64" s="2">
+      <c r="L64">
+        <v>999999</v>
+      </c>
+      <c r="M64">
         <v>5.8816491847345587</v>
       </c>
-      <c r="N64" s="2">
+      <c r="N64">
         <v>285850965.01147759</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>139</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>140</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65">
         <v>179.55648521380976</v>
       </c>
-      <c r="D65" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E65" s="2">
+      <c r="D65">
+        <v>999999</v>
+      </c>
+      <c r="E65">
         <v>62.221280300492523</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65">
         <v>920674.10184046638</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65">
         <v>314.39297999999991</v>
       </c>
-      <c r="H65" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I65" s="2">
+      <c r="H65">
+        <v>999999</v>
+      </c>
+      <c r="I65">
         <v>11.680752377564041</v>
       </c>
-      <c r="J65" s="2">
+      <c r="J65">
         <v>522780.18534145108</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65">
         <v>386.44622848374098</v>
       </c>
-      <c r="L65" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M65" s="2">
+      <c r="L65">
+        <v>999999</v>
+      </c>
+      <c r="M65">
         <v>5.1120361253842246</v>
       </c>
-      <c r="N65" s="2">
+      <c r="N65">
         <v>372909.6346445774</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>141</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>142</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66">
         <v>90.448266476891575</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66">
         <v>11.021936928595634</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66">
         <v>55.676361669721331</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66">
         <v>198544552.46577719</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66">
         <v>168.33410056757469</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66">
         <v>16.284710150755469</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66">
         <v>7.8490411709777241</v>
       </c>
-      <c r="J66" s="2">
+      <c r="J66">
         <v>112329417.70294215</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66">
         <v>195.94631768907198</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66">
         <v>7.7162146151219666</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66">
         <v>3.4935638325457048</v>
       </c>
-      <c r="N66" s="2">
+      <c r="N66">
         <v>80112769.996417627</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>144</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67">
         <v>132.26126152573687</v>
       </c>
-      <c r="D67" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E67" s="2">
+      <c r="D67">
+        <v>999999</v>
+      </c>
+      <c r="E67">
         <v>90.778176799567774</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67">
         <v>21393718.392094817</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67">
         <v>234.08000942079107</v>
       </c>
-      <c r="H67" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I67" s="2">
+      <c r="H67">
+        <v>999999</v>
+      </c>
+      <c r="I67">
         <v>12.914936795067472</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67">
         <v>12126056.420194259</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67">
         <v>293.6347259031366</v>
       </c>
-      <c r="L67" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M67" s="2">
+      <c r="L67">
+        <v>999999</v>
+      </c>
+      <c r="M67">
         <v>5.2845564099117439</v>
       </c>
-      <c r="N67" s="2">
+      <c r="N67">
         <v>8660580.4988506082</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>145</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>146</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68">
         <v>113.71446709385779</v>
       </c>
-      <c r="D68" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E68" s="2">
+      <c r="D68">
+        <v>999999</v>
+      </c>
+      <c r="E68">
         <v>84.223810976310915</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68">
         <v>52410903.993931375</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68">
         <v>210.81724874037528</v>
       </c>
-      <c r="H68" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I68" s="2">
+      <c r="H68">
+        <v>999999</v>
+      </c>
+      <c r="I68">
         <v>22.971773470148865</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68">
         <v>28450161.511783898</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68">
         <v>252.59947296854457</v>
       </c>
-      <c r="L68" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M68" s="2">
+      <c r="L68">
+        <v>999999</v>
+      </c>
+      <c r="M68">
         <v>9.9918508697463437</v>
       </c>
-      <c r="N68" s="2">
+      <c r="N68">
         <v>20553984.721176885</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>148</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69">
         <v>87.264492410319349</v>
       </c>
-      <c r="D69" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E69" s="2">
+      <c r="D69">
+        <v>999999</v>
+      </c>
+      <c r="E69">
         <v>86.22855765274862</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69">
         <v>385922511.60193068</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69">
         <v>165.32420952097661</v>
       </c>
-      <c r="H69" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I69" s="2">
+      <c r="H69">
+        <v>999999</v>
+      </c>
+      <c r="I69">
         <v>12.720000106314178</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69">
         <v>218742386.95044506</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69">
         <v>202.99539114248631</v>
       </c>
-      <c r="L69" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M69" s="2">
+      <c r="L69">
+        <v>999999</v>
+      </c>
+      <c r="M69">
         <v>5.3814279155919964</v>
       </c>
-      <c r="N69" s="2">
+      <c r="N69">
         <v>156099516.69023797</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>149</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>150</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70">
         <v>97.094986871936726</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70">
         <v>3.0221927415946346</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70">
         <v>50.721200513521723</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70">
         <v>5108656.0653423788</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70">
         <v>159.5061424160622</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70">
         <v>4.4652344806019935</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70">
         <v>5.9766961085850445</v>
       </c>
-      <c r="J70" s="2">
+      <c r="J70">
         <v>2877353.9446505639</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70">
         <v>205.02061354094585</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L70">
         <v>2.1157703907655514</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70">
         <v>2.7245811249942431</v>
       </c>
-      <c r="N70" s="2">
+      <c r="N70">
         <v>2053724.8440180342</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>151</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>152</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71">
         <v>114.60482913887414</v>
       </c>
-      <c r="D71" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E71" s="2">
+      <c r="D71">
+        <v>999999</v>
+      </c>
+      <c r="E71">
         <v>87.831691380998393</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71">
         <v>136747551.5188525</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71">
         <v>202.75617818522932</v>
       </c>
-      <c r="H71" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I71" s="2">
+      <c r="H71">
+        <v>999999</v>
+      </c>
+      <c r="I71">
         <v>16.250155264416573</v>
       </c>
-      <c r="J71" s="2">
+      <c r="J71">
         <v>76129162.95946458</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71">
         <v>247.58643151538317</v>
       </c>
-      <c r="L71" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M71" s="2">
+      <c r="L71">
+        <v>999999</v>
+      </c>
+      <c r="M71">
         <v>7.2055538523356022</v>
       </c>
-      <c r="N71" s="2">
+      <c r="N71">
         <v>54530621.945151851</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>153</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72">
         <v>107.58707703957872</v>
       </c>
-      <c r="D72" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E72" s="2">
+      <c r="D72">
+        <v>999999</v>
+      </c>
+      <c r="E72">
         <v>85.996570207498038</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72">
         <v>150805531.0923979</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72">
         <v>198.67232912023556</v>
       </c>
-      <c r="H72" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I72" s="2">
+      <c r="H72">
+        <v>999999</v>
+      </c>
+      <c r="I72">
         <v>13.719910575480551</v>
       </c>
-      <c r="J72" s="2">
+      <c r="J72">
         <v>82139588.607001752</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72">
         <v>234.75432966182848</v>
       </c>
-      <c r="L72" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M72" s="2">
+      <c r="L72">
+        <v>999999</v>
+      </c>
+      <c r="M72">
         <v>5.9997851637771467</v>
       </c>
-      <c r="N72" s="2">
+      <c r="N72">
         <v>59348087.803944886</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>155</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73">
         <v>89.318520777380897</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73">
         <v>7.9282189587832583</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73">
         <v>50.226261338726729</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73">
         <v>13809824.877951093</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73">
         <v>145.29461627352686</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73">
         <v>11.713798454112565</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73">
         <v>5.2356813744861919</v>
       </c>
-      <c r="J73" s="2">
+      <c r="J73">
         <v>7865214.8206331553</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73">
         <v>187.19507347263806</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73">
         <v>5.5503709917749644</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73">
         <v>2.3630698763508406</v>
       </c>
-      <c r="N73" s="2">
+      <c r="N73">
         <v>5598652.1907190494</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>157</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74">
         <v>96.08487904089894</v>
       </c>
-      <c r="D74" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E74" s="2">
+      <c r="D74">
+        <v>999999</v>
+      </c>
+      <c r="E74">
         <v>67.833170385386978</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74">
         <v>65624759.255603783</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74">
         <v>173.92224841469363</v>
       </c>
-      <c r="H74" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I74" s="2">
+      <c r="H74">
+        <v>999999</v>
+      </c>
+      <c r="I74">
         <v>18.113238352257742</v>
       </c>
-      <c r="J74" s="2">
+      <c r="J74">
         <v>36966333.600973934</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74">
         <v>207.45079224180242</v>
       </c>
-      <c r="L74" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M74" s="2">
+      <c r="L74">
+        <v>999999</v>
+      </c>
+      <c r="M74">
         <v>7.9329410953635042</v>
       </c>
-      <c r="N74" s="2">
+      <c r="N74">
         <v>26428794.672663171</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>159</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75">
         <v>127.57432128729474</v>
       </c>
-      <c r="D75" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E75" s="2">
+      <c r="D75">
+        <v>999999</v>
+      </c>
+      <c r="E75">
         <v>88.463761782693382</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75">
         <v>228715549.29675385</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75">
         <v>237.25931177020598</v>
       </c>
-      <c r="H75" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I75" s="2">
+      <c r="H75">
+        <v>999999</v>
+      </c>
+      <c r="I75">
         <v>21.807213506807614</v>
       </c>
-      <c r="J75" s="2">
+      <c r="J75">
         <v>128019626.71532759</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75">
         <v>290.48425273839229</v>
       </c>
-      <c r="L75" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M75" s="2">
+      <c r="L75">
+        <v>999999</v>
+      </c>
+      <c r="M75">
         <v>9.6101185731738745</v>
       </c>
-      <c r="N75" s="2">
+      <c r="N75">
         <v>91494756.338138342</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>161</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76">
         <v>168.14447188110239</v>
       </c>
-      <c r="D76" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E76" s="2">
+      <c r="D76">
+        <v>999999</v>
+      </c>
+      <c r="E76">
         <v>83.148770341063283</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76">
         <v>4540628.232190555</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76">
         <v>266.69655167909116</v>
       </c>
-      <c r="H76" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I76" s="2">
+      <c r="H76">
+        <v>999999</v>
+      </c>
+      <c r="I76">
         <v>15.792958552956495</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76">
         <v>2584240.1682498772</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76">
         <v>349.09188808655307</v>
       </c>
-      <c r="L76" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M76" s="2">
+      <c r="L76">
+        <v>999999</v>
+      </c>
+      <c r="M76">
         <v>6.2939297542683823</v>
       </c>
-      <c r="N76" s="2">
+      <c r="N76">
         <v>1844077.6330691364</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>163</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>164</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77">
         <v>145.17245903295796</v>
       </c>
-      <c r="D77" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E77" s="2">
+      <c r="D77">
+        <v>999999</v>
+      </c>
+      <c r="E77">
         <v>73.696084493807149</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77">
         <v>4429568.8913625684</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77">
         <v>258.29819294891217</v>
       </c>
-      <c r="H77" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I77" s="2">
+      <c r="H77">
+        <v>999999</v>
+      </c>
+      <c r="I77">
         <v>20.076218214042676</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77">
         <v>2497126.2638315861</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77">
         <v>317.82615836973827</v>
       </c>
-      <c r="L77" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M77" s="2">
+      <c r="L77">
+        <v>999999</v>
+      </c>
+      <c r="M77">
         <v>8.8869237477823724</v>
       </c>
-      <c r="N77" s="2">
+      <c r="N77">
         <v>1777989.9117601742</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>165</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>166</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78">
         <v>98.919203819611838</v>
       </c>
-      <c r="D78" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E78" s="2">
+      <c r="D78">
+        <v>999999</v>
+      </c>
+      <c r="E78">
         <v>67.666978103966144</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78">
         <v>142370400.19714457</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78">
         <v>185.59046093240644</v>
       </c>
-      <c r="H78" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I78" s="2">
+      <c r="H78">
+        <v>999999</v>
+      </c>
+      <c r="I78">
         <v>16.623513636624182</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78">
         <v>79206561.40914391</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78">
         <v>213.17352811228932</v>
       </c>
-      <c r="L78" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M78" s="2">
+      <c r="L78">
+        <v>999999</v>
+      </c>
+      <c r="M78">
         <v>7.3154910000128535</v>
       </c>
-      <c r="N78" s="2">
+      <c r="N78">
         <v>56729487.637475528</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79">
         <v>150.41164593961497</v>
       </c>
-      <c r="D79" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E79" s="2">
+      <c r="D79">
+        <v>999999</v>
+      </c>
+      <c r="E79">
         <v>79.131956942021162</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79">
         <v>7578500.5904483655</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79">
         <v>257.47503944060139</v>
       </c>
-      <c r="H79" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I79" s="2">
+      <c r="H79">
+        <v>999999</v>
+      </c>
+      <c r="I79">
         <v>16.286383141274786</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79">
         <v>4158666.0959835844</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79">
         <v>320.15170684080766</v>
       </c>
-      <c r="L79" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M79" s="2">
+      <c r="L79">
+        <v>999999</v>
+      </c>
+      <c r="M79">
         <v>6.6471877406197244</v>
       </c>
-      <c r="N79" s="2">
+      <c r="N79">
         <v>2984675.5398481674</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>169</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80">
         <v>113.18678370509257</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80">
         <v>2.5184939513288622</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80">
         <v>54.126047148262742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80">
         <v>6770216.1364870258</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80">
         <v>185.88130815048964</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80">
         <v>3.721028733834995</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80">
         <v>8.459609210177911</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80">
         <v>3808793.5852115867</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80">
         <v>240.32731908229601</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80">
         <v>1.7631419923046263</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80">
         <v>3.8612539737734943</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80">
         <v>2718839.7669616267</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>171</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>172</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81">
         <v>96.621052119425599</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81">
         <v>9.5702770150496761</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81">
         <v>54.59115333560311</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81">
         <v>47437475.405475363</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81">
         <v>181.56489170636897</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81">
         <v>14.139909188572981</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81">
         <v>5.6181822402967123</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81">
         <v>26333809.771853767</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81">
         <v>238.79494399116635</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L81">
         <v>6.6999395707575795</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81">
         <v>2.4696772002434328</v>
       </c>
-      <c r="N81" s="2">
+      <c r="N81">
         <v>18926171.924010828</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>173</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>174</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82">
         <v>84.947329988148724</v>
       </c>
-      <c r="D82" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E82" s="2">
+      <c r="D82">
+        <v>999999</v>
+      </c>
+      <c r="E82">
         <v>62.880614737258867</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82">
         <v>13287874.7712331</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82">
         <v>158.55751718493065</v>
       </c>
-      <c r="H82" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I82" s="2">
+      <c r="H82">
+        <v>999999</v>
+      </c>
+      <c r="I82">
         <v>11.578772765181228</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82">
         <v>7409491.7702960419</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82">
         <v>189.64784287417325</v>
       </c>
-      <c r="L82" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M82" s="2">
+      <c r="L82">
+        <v>999999</v>
+      </c>
+      <c r="M82">
         <v>4.7307352248421095</v>
       </c>
-      <c r="N82" s="2">
+      <c r="N82">
         <v>5318267.6969147651</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>175</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>176</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83">
         <v>135.68539651370295</v>
       </c>
-      <c r="D83" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E83" s="2">
+      <c r="D83">
+        <v>999999</v>
+      </c>
+      <c r="E83">
         <v>78.961943270301902</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83">
         <v>8999163.7281955108</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83">
         <v>229.98601104476145</v>
       </c>
-      <c r="H83" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I83" s="2">
+      <c r="H83">
+        <v>999999</v>
+      </c>
+      <c r="I83">
         <v>18.904496211069937</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83">
         <v>5107770.5770441433</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83">
         <v>295.37015249394966</v>
       </c>
-      <c r="L83" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M83" s="2">
+      <c r="L83">
+        <v>999999</v>
+      </c>
+      <c r="M83">
         <v>7.7720626262169645</v>
       </c>
-      <c r="N83" s="2">
+      <c r="N83">
         <v>3648654.3859705781</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>177</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>178</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84">
         <v>112.99431969140706</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84">
         <v>5.5406866929234964</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84">
         <v>59.718658578268474</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84">
         <v>33676412.973087549</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84">
         <v>208.89455686554462</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84">
         <v>8.1862632144369893</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84">
         <v>9.4645663221032894</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84">
         <v>18836488.767351501</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84">
         <v>251.41566790600911</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84">
         <v>3.8789123830701779</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84">
         <v>4.0619621098084497</v>
       </c>
-      <c r="N84" s="2">
+      <c r="N84">
         <v>13490972.516206687</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>179</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>180</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85">
         <v>184.55521815463334</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85">
         <v>24.781980481076008</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85">
         <v>70.370759760097584</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85">
         <v>721156777.02286458</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85">
         <v>312.29228716191926</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85">
         <v>36.61492274093635</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85">
         <v>19.2893046345547</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85">
         <v>411135008.74945968</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85">
         <v>396.17224281812116</v>
       </c>
-      <c r="L85" s="2">
+      <c r="L85">
         <v>17.349317204277522</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85">
         <v>8.7092252392054164</v>
       </c>
-      <c r="N85" s="2">
+      <c r="N85">
         <v>290304450.77527118</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>181</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>182</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86">
         <v>94.607344869944328</v>
       </c>
-      <c r="D86" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E86" s="2">
+      <c r="D86">
+        <v>999999</v>
+      </c>
+      <c r="E86">
         <v>64.768897816876191</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86">
         <v>581248263.20252359</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86">
         <v>172.71061323311395</v>
       </c>
-      <c r="H86" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I86" s="2">
+      <c r="H86">
+        <v>999999</v>
+      </c>
+      <c r="I86">
         <v>16.178167552972933</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86">
         <v>327404639.1493333</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86">
         <v>205.02551331967757</v>
       </c>
-      <c r="L86" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M86" s="2">
+      <c r="L86">
+        <v>999999</v>
+      </c>
+      <c r="M86">
         <v>7.1467353393112223</v>
       </c>
-      <c r="N86" s="2">
+      <c r="N86">
         <v>233960059.47977903</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>183</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>184</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87">
         <v>109.38447941106095</v>
       </c>
-      <c r="D87" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E87" s="2">
+      <c r="D87">
+        <v>999999</v>
+      </c>
+      <c r="E87">
         <v>79.225165945526044</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87">
         <v>15388614.560636764</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87">
         <v>201.02760081797834</v>
       </c>
-      <c r="H87" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I87" s="2">
+      <c r="H87">
+        <v>999999</v>
+      </c>
+      <c r="I87">
         <v>7.1486453169093895</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87">
         <v>8528832.8202191796</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87">
         <v>234.86478907071861</v>
       </c>
-      <c r="L87" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M87" s="2">
+      <c r="L87">
+        <v>999999</v>
+      </c>
+      <c r="M87">
         <v>3.0434183222587561</v>
       </c>
-      <c r="N87" s="2">
+      <c r="N87">
         <v>6132246.8761622077</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>185</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>186</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88">
         <v>367.51122533528968</v>
       </c>
-      <c r="D88" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E88" s="2">
+      <c r="D88">
+        <v>999999</v>
+      </c>
+      <c r="E88">
         <v>73.448109261920948</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88">
         <v>2560.1566438486329</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88">
         <v>552.34124392841579</v>
       </c>
-      <c r="H88" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I88" s="2">
+      <c r="H88">
+        <v>999999</v>
+      </c>
+      <c r="I88">
         <v>13.206819706737004</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88">
         <v>1461.9802863969628</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88">
         <v>732.74061397376988</v>
       </c>
-      <c r="L88" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M88" s="2">
+      <c r="L88">
+        <v>999999</v>
+      </c>
+      <c r="M88">
         <v>5.3214668581592779</v>
       </c>
-      <c r="N88" s="2">
+      <c r="N88">
         <v>1044.3298752298824</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>187</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>188</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89">
         <v>112.29988174924907</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89">
         <v>2.7703433464617482</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89">
         <v>59.255872884456664</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89">
         <v>1920228.0059222442</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89">
         <v>206.61995251567478</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89">
         <v>4.0931316072184947</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89">
         <v>11.639066899328027</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89">
         <v>1056966.4124528759</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89">
         <v>238.65140503268361</v>
       </c>
-      <c r="L89" s="2">
+      <c r="L89">
         <v>1.939456191535089</v>
       </c>
-      <c r="M89" s="2">
+      <c r="M89">
         <v>5.1153218159630791</v>
       </c>
-      <c r="N89" s="2">
+      <c r="N89">
         <v>758001.88676752185</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>189</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>190</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90">
         <v>112.75185394428905</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90">
         <v>1.5110963707973173</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90">
         <v>59.058598006787868</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90">
         <v>2712461.1009044307</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90">
         <v>209.64721</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90">
         <v>2.2326172403009967</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90">
         <v>8.5424448844271872</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90">
         <v>1489363.9176344895</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90">
         <v>250.54443750279444</v>
       </c>
-      <c r="L90" s="2">
+      <c r="L90">
         <v>1.0578851953827757</v>
       </c>
-      <c r="M90" s="2">
+      <c r="M90">
         <v>3.6480738807504975</v>
       </c>
-      <c r="N90" s="2">
+      <c r="N90">
         <v>1070168.5866731238</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>191</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>192</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91">
         <v>90.694819961204928</v>
       </c>
-      <c r="D91" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E91" s="2">
+      <c r="D91">
+        <v>999999</v>
+      </c>
+      <c r="E91">
         <v>90.58222892967089</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91">
         <v>357848746.96073574</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91">
         <v>168.24536257194239</v>
       </c>
-      <c r="H91" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I91" s="2">
+      <c r="H91">
+        <v>999999</v>
+      </c>
+      <c r="I91">
         <v>16.599168564313967</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91">
         <v>199916182.34712604</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91">
         <v>196.34794032386156</v>
       </c>
-      <c r="L91" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M91" s="2">
+      <c r="L91">
+        <v>999999</v>
+      </c>
+      <c r="M91">
         <v>7.0553698091641408</v>
       </c>
-      <c r="N91" s="2">
+      <c r="N91">
         <v>143106678.19359347</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>193</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>194</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92">
         <v>89.841726084276601</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92">
         <v>11.081373385846993</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92">
         <v>57.411674431706345</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92">
         <v>217554613.47465086</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92">
         <v>170.00655274218366</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92">
         <v>16.372526428873979</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92">
         <v>10.831271006974086</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92">
         <v>121806683.50711837</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92">
         <v>193.75524816446773</v>
       </c>
-      <c r="L92" s="2">
+      <c r="L92">
         <v>7.7578247661403559</v>
       </c>
-      <c r="M92" s="2">
+      <c r="M92">
         <v>4.9051636178087019</v>
       </c>
-      <c r="N92" s="2">
+      <c r="N92">
         <v>87238641.387202531</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>196</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93">
         <v>112.11939438819375</v>
       </c>
-      <c r="D93" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E93" s="2">
+      <c r="D93">
+        <v>999999</v>
+      </c>
+      <c r="E93">
         <v>88.722828442064383</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93">
         <v>1074282532.2707701</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93">
         <v>205.06194329580052</v>
       </c>
-      <c r="H93" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I93" s="2">
+      <c r="H93">
+        <v>999999</v>
+      </c>
+      <c r="I93">
         <v>17.309773420186477</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93">
         <v>596668625.70277762</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93">
         <v>241.50759219707274</v>
       </c>
-      <c r="L93" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M93" s="2">
+      <c r="L93">
+        <v>999999</v>
+      </c>
+      <c r="M93">
         <v>7.6933378587549575</v>
       </c>
-      <c r="N93" s="2">
+      <c r="N93">
         <v>427663180.35206854</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>197</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94">
         <v>106.27419930967343</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94">
         <v>3.2438202093115747</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94">
         <v>52.377236482266618</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94">
         <v>9467036.527600443</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94">
         <v>183.9173151566242</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94">
         <v>4.7926850091794728</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94">
         <v>8.3478260739524757</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94">
         <v>5269986.8910983382</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94">
         <v>230.53794117595532</v>
       </c>
-      <c r="L94" s="2">
+      <c r="L94">
         <v>2.2709268860883585</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94">
         <v>3.8377274665258057</v>
       </c>
-      <c r="N94" s="2">
+      <c r="N94">
         <v>3770537.1488041128</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>199</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95">
         <v>104.01699543913981</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95">
         <v>2.7703433464617482</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95">
         <v>56.228998433227979</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95">
         <v>4142477.3319991846</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95">
         <v>194.31876</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95">
         <v>4.0931316072184947</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95">
         <v>10.846979585742426</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J95">
         <v>2270897.2146014725</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95">
         <v>231.42614477146904</v>
       </c>
-      <c r="L95" s="2">
+      <c r="L95">
         <v>1.939456191535089</v>
       </c>
-      <c r="M95" s="2">
+      <c r="M95">
         <v>4.856666214108337</v>
       </c>
-      <c r="N95" s="2">
+      <c r="N95">
         <v>1636790.2386187587</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>201</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96">
         <v>157.87961269897713</v>
       </c>
-      <c r="D96" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E96" s="2">
+      <c r="D96">
+        <v>999999</v>
+      </c>
+      <c r="E96">
         <v>77.763240009438107</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96">
         <v>24188959.133854799</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96">
         <v>293.0351934073795</v>
       </c>
-      <c r="H96" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I96" s="2">
+      <c r="H96">
+        <v>999999</v>
+      </c>
+      <c r="I96">
         <v>9.6366703998260306</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96">
         <v>13788729.473688165</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96">
         <v>338.67255052289073</v>
       </c>
-      <c r="L96" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M96" s="2">
+      <c r="L96">
+        <v>999999</v>
+      </c>
+      <c r="M96">
         <v>4.1317462710015462</v>
       </c>
-      <c r="N96" s="2">
+      <c r="N96">
         <v>9810702.4571459312</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>203</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
         <v>204</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97">
         <v>103.42644308251437</v>
       </c>
-      <c r="D97" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E97" s="2">
+      <c r="D97">
+        <v>999999</v>
+      </c>
+      <c r="E97">
         <v>83.851111305361613</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97">
         <v>4465959.5676608952</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97">
         <v>184.99035974383008</v>
       </c>
-      <c r="H97" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I97" s="2">
+      <c r="H97">
+        <v>999999</v>
+      </c>
+      <c r="I97">
         <v>17.489974955421477</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J97">
         <v>2452037.1227004966</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97">
         <v>229.35737132968853</v>
       </c>
-      <c r="L97" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M97" s="2">
+      <c r="L97">
+        <v>999999</v>
+      </c>
+      <c r="M97">
         <v>7.1844779286290557</v>
       </c>
-      <c r="N97" s="2">
+      <c r="N97">
         <v>1765143.052002972</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" t="s">
         <v>205</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
         <v>206</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98">
         <v>118.34143104290813</v>
       </c>
-      <c r="D98" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E98" s="2">
+      <c r="D98">
+        <v>999999</v>
+      </c>
+      <c r="E98">
         <v>70.859638949098496</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98">
         <v>2023636.2227971943</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98">
         <v>213.33346527292184</v>
       </c>
-      <c r="H98" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I98" s="2">
+      <c r="H98">
+        <v>999999</v>
+      </c>
+      <c r="I98">
         <v>26.680007307258304</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98">
         <v>1144014.8214482933</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98">
         <v>250.20839450834305</v>
       </c>
-      <c r="L98" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M98" s="2">
+      <c r="L98">
+        <v>999999</v>
+      </c>
+      <c r="M98">
         <v>11.918993124411262</v>
       </c>
-      <c r="N98" s="2">
+      <c r="N98">
         <v>816723.67480982933</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>207</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>208</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99">
         <v>118.27841774724514</v>
       </c>
-      <c r="D99" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E99" s="2">
+      <c r="D99">
+        <v>999999</v>
+      </c>
+      <c r="E99">
         <v>89.597925994050399</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99">
         <v>191938686.20389089</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99">
         <v>217.58495659917475</v>
       </c>
-      <c r="H99" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I99" s="2">
+      <c r="H99">
+        <v>999999</v>
+      </c>
+      <c r="I99">
         <v>12.961956048220209</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99">
         <v>106615377.70524871</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99">
         <v>252.3957487104571</v>
       </c>
-      <c r="L99" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M99" s="2">
+      <c r="L99">
+        <v>999999</v>
+      </c>
+      <c r="M99">
         <v>5.3706124752903452</v>
       </c>
-      <c r="N99" s="2">
+      <c r="N99">
         <v>76496690.964210749</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>209</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>210</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100">
         <v>120.85398415995768</v>
       </c>
-      <c r="D100" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E100" s="2">
+      <c r="D100">
+        <v>999999</v>
+      </c>
+      <c r="E100">
         <v>77.091538239591273</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100">
         <v>22939378.708575305</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100">
         <v>216.09515767105293</v>
       </c>
-      <c r="H100" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I100" s="2">
+      <c r="H100">
+        <v>999999</v>
+      </c>
+      <c r="I100">
         <v>14.297878364593435</v>
       </c>
-      <c r="J100" s="2">
+      <c r="J100">
         <v>12434936.865971057</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100">
         <v>263.98364101523623</v>
       </c>
-      <c r="L100" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M100" s="2">
+      <c r="L100">
+        <v>999999</v>
+      </c>
+      <c r="M100">
         <v>5.7454925281908205</v>
       </c>
-      <c r="N100" s="2">
+      <c r="N100">
         <v>8951004.927046204</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
         <v>211</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
         <v>212</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101">
         <v>144.65302257091173</v>
       </c>
-      <c r="D101" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E101" s="2">
+      <c r="D101">
+        <v>999999</v>
+      </c>
+      <c r="E101">
         <v>63.324625795622538</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101">
         <v>577923.49208578595</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101">
         <v>236.88826701007662</v>
       </c>
-      <c r="H101" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I101" s="2">
+      <c r="H101">
+        <v>999999</v>
+      </c>
+      <c r="I101">
         <v>7.864856487757657</v>
       </c>
-      <c r="J101" s="2">
+      <c r="J101">
         <v>326419.0001264342</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101">
         <v>306.96385724477352</v>
       </c>
-      <c r="L101" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M101" s="2">
+      <c r="L101">
+        <v>999999</v>
+      </c>
+      <c r="M101">
         <v>3.3127344072968623</v>
       </c>
-      <c r="N101" s="2">
+      <c r="N101">
         <v>233263.68541427911</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>213</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
         <v>214</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102">
         <v>105.39246967686246</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102">
         <v>10.142478840791593</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102">
         <v>57.857245326033087</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102">
         <v>94864311.362120703</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102">
         <v>194.97026238961996</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102">
         <v>14.985326916900291</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102">
         <v>6.7656395834466343</v>
       </c>
-      <c r="J102" s="2">
+      <c r="J102">
         <v>53194510.40120057</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102">
         <v>226.63523836702458</v>
       </c>
-      <c r="L102" s="2">
+      <c r="L102">
         <v>7.1005254314091912</v>
       </c>
-      <c r="M102" s="2">
+      <c r="M102">
         <v>2.9047935780485492</v>
       </c>
-      <c r="N102" s="2">
+      <c r="N102">
         <v>37975597.72195372</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" t="s">
         <v>215</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
         <v>216</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103">
         <v>93.100084204708097</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103">
         <v>12.834245175971882</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103">
         <v>59.590779623744659</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103">
         <v>39266055.173648492</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103">
         <v>174.61213802709523</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103">
         <v>18.96236242762313</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103">
         <v>11.214095879152151</v>
       </c>
-      <c r="J103" s="2">
+      <c r="J103">
         <v>21851151.255916856</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103">
         <v>201.38178304321215</v>
       </c>
-      <c r="L103" s="2">
+      <c r="L103">
         <v>8.9849715927843761</v>
       </c>
-      <c r="M103" s="2">
+      <c r="M103">
         <v>4.9185308251969655</v>
       </c>
-      <c r="N103" s="2">
+      <c r="N103">
         <v>15684297.907211462</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" t="s">
         <v>217</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
         <v>218</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104">
         <v>132.6959429466599</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104">
         <v>19.593882941338546</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104">
         <v>63.816215636982726</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104">
         <v>39580254.982084267</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104">
         <v>222.70737285378195</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104">
         <v>28.949603549236258</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104">
         <v>22.166356034655514</v>
       </c>
-      <c r="J104" s="2">
+      <c r="J104">
         <v>22276765.046997633</v>
       </c>
-      <c r="K104" s="2">
+      <c r="K104">
         <v>282.84852009348901</v>
       </c>
-      <c r="L104" s="2">
+      <c r="L104">
         <v>13.717244700129992</v>
       </c>
-      <c r="M104" s="2">
+      <c r="M104">
         <v>10.108060703110848</v>
       </c>
-      <c r="N104" s="2">
+      <c r="N104">
         <v>15906747.382569399</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" t="s">
         <v>219</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>220</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105">
         <v>204.15143653900944</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105">
         <v>6.0443854831892692</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105">
         <v>62.802145116031966</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105">
         <v>31116214.02527089</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105">
         <v>340.65788642332637</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105">
         <v>8.9304689612039869</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105">
         <v>8.0619251001488514</v>
       </c>
-      <c r="J105" s="2">
+      <c r="J105">
         <v>17576898.698029552</v>
       </c>
-      <c r="K105" s="2">
+      <c r="K105">
         <v>433.98795943447141</v>
       </c>
-      <c r="L105" s="2">
+      <c r="L105">
         <v>4.2315407815311028</v>
       </c>
-      <c r="M105" s="2">
+      <c r="M105">
         <v>3.3868378970682227</v>
       </c>
-      <c r="N105" s="2">
+      <c r="N105">
         <v>12550453.715545032</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>221</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>222</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106">
         <v>106.26438845173308</v>
       </c>
-      <c r="D106" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E106" s="2">
+      <c r="D106">
+        <v>999999</v>
+      </c>
+      <c r="E106">
         <v>63.501815468806122</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106">
         <v>7594542.9346646592</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106">
         <v>187.54729545910652</v>
       </c>
-      <c r="H106" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I106" s="2">
+      <c r="H106">
+        <v>999999</v>
+      </c>
+      <c r="I106">
         <v>12.860231733160033</v>
       </c>
-      <c r="J106" s="2">
+      <c r="J106">
         <v>4257154.862130329</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106">
         <v>227.95027025953539</v>
       </c>
-      <c r="L106" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M106" s="2">
+      <c r="L106">
+        <v>999999</v>
+      </c>
+      <c r="M106">
         <v>5.3581556640105648</v>
       </c>
-      <c r="N106" s="2">
+      <c r="N106">
         <v>3044465.9622652959</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>223</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>224</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107">
         <v>116.69243860064486</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107">
         <v>3.8119924447313656</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107">
         <v>52.397034212240918</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107">
         <v>12049601.35557442</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107">
         <v>195.83931010423362</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107">
         <v>5.6321490915326473</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107">
         <v>5.5146418790656435</v>
       </c>
-      <c r="J107" s="2">
+      <c r="J107">
         <v>6655286.5032598618</v>
       </c>
-      <c r="K107" s="2">
+      <c r="K107">
         <v>250.5011251241263</v>
       </c>
-      <c r="L107" s="2">
+      <c r="L107">
         <v>2.6686917195522821</v>
       </c>
-      <c r="M107" s="2">
+      <c r="M107">
         <v>2.4984727416934098</v>
       </c>
-      <c r="N107" s="2">
+      <c r="N107">
         <v>4772119.2627830133</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" t="s">
         <v>225</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
         <v>226</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108">
         <v>94.914720585310164</v>
       </c>
-      <c r="D108" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E108" s="2">
+      <c r="D108">
+        <v>999999</v>
+      </c>
+      <c r="E108">
         <v>66.700083376745184</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108">
         <v>1646741137.54458</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108">
         <v>173.01053620334488</v>
       </c>
-      <c r="H108" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I108" s="2">
+      <c r="H108">
+        <v>999999</v>
+      </c>
+      <c r="I108">
         <v>25.639747142714064</v>
       </c>
-      <c r="J108" s="2">
+      <c r="J108">
         <v>925396982.00557148</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108">
         <v>202.69191390300452</v>
       </c>
-      <c r="L108" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M108" s="2">
+      <c r="L108">
+        <v>999999</v>
+      </c>
+      <c r="M108">
         <v>11.628611402216585</v>
       </c>
-      <c r="N108" s="2">
+      <c r="N108">
         <v>661034656.99396288</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" t="s">
         <v>227</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s">
         <v>228</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109">
         <v>127.34785865912957</v>
       </c>
-      <c r="D109" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E109" s="2">
+      <c r="D109">
+        <v>999999</v>
+      </c>
+      <c r="E109">
         <v>71.351645336926268</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109">
         <v>1459630.3284221992</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109">
         <v>206.25108983969744</v>
       </c>
-      <c r="H109" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I109" s="2">
+      <c r="H109">
+        <v>999999</v>
+      </c>
+      <c r="I109">
         <v>16.782919975961249</v>
       </c>
-      <c r="J109" s="2">
+      <c r="J109">
         <v>822150.76267346356</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109">
         <v>276.47553167345831</v>
       </c>
-      <c r="L109" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M109" s="2">
+      <c r="L109">
+        <v>999999</v>
+      </c>
+      <c r="M109">
         <v>7.211435638100042</v>
       </c>
-      <c r="N109" s="2">
+      <c r="N109">
         <v>588792.00003800343</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" t="s">
         <v>229</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
         <v>230</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110">
         <v>123.70675647165025</v>
       </c>
-      <c r="D110" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E110" s="2">
+      <c r="D110">
+        <v>999999</v>
+      </c>
+      <c r="E110">
         <v>73.525263317063988</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110">
         <v>30806884.736320648</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110">
         <v>204.40982650725022</v>
       </c>
-      <c r="H110" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I110" s="2">
+      <c r="H110">
+        <v>999999</v>
+      </c>
+      <c r="I110">
         <v>30.61841853972394</v>
       </c>
-      <c r="J110" s="2">
+      <c r="J110">
         <v>17497160.72246347</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110">
         <v>264.72055871334391</v>
       </c>
-      <c r="L110" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M110" s="2">
+      <c r="L110">
+        <v>999999</v>
+      </c>
+      <c r="M110">
         <v>13.785137871906324</v>
       </c>
-      <c r="N110" s="2">
+      <c r="N110">
         <v>12461871.844873829</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" t="s">
         <v>231</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s">
         <v>232</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111">
         <v>174.15034984924586</v>
       </c>
-      <c r="D111" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E111" s="2">
+      <c r="D111">
+        <v>999999</v>
+      </c>
+      <c r="E111">
         <v>79.341608203877271</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111">
         <v>90427968.465991184</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111">
         <v>312.81896380134924</v>
       </c>
-      <c r="H111" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I111" s="2">
+      <c r="H111">
+        <v>999999</v>
+      </c>
+      <c r="I111">
         <v>9.5384286464674304</v>
       </c>
-      <c r="J111" s="2">
+      <c r="J111">
         <v>49950100.550969154</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111">
         <v>374.03119395341247</v>
       </c>
-      <c r="L111" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M111" s="2">
+      <c r="L111">
+        <v>999999</v>
+      </c>
+      <c r="M111">
         <v>4.091392348111702</v>
       </c>
-      <c r="N111" s="2">
+      <c r="N111">
         <v>35959381.784558952</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" t="s">
         <v>233</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
         <v>234</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112">
         <v>140.87512396236471</v>
       </c>
-      <c r="D112" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E112" s="2">
+      <c r="D112">
+        <v>999999</v>
+      </c>
+      <c r="E112">
         <v>87.890136531170597</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112">
         <v>26390636.830805413</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112">
         <v>246.81042919410825</v>
       </c>
-      <c r="H112" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I112" s="2">
+      <c r="H112">
+        <v>999999</v>
+      </c>
+      <c r="I112">
         <v>25.163179501400268</v>
       </c>
-      <c r="J112" s="2">
+      <c r="J112">
         <v>14541896.313091949</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112">
         <v>310.91497440688198</v>
       </c>
-      <c r="L112" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M112" s="2">
+      <c r="L112">
+        <v>999999</v>
+      </c>
+      <c r="M112">
         <v>10.919201907434633</v>
       </c>
-      <c r="N112" s="2">
+      <c r="N112">
         <v>10394848.261468781</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" t="s">
         <v>235</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" t="s">
         <v>236</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113">
         <v>170.07780102345552</v>
       </c>
-      <c r="D113" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E113" s="2">
+      <c r="D113">
+        <v>999999</v>
+      </c>
+      <c r="E113">
         <v>81.528486448567335</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113">
         <v>51529406.682101838</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113">
         <v>304.97113320412211</v>
       </c>
-      <c r="H113" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I113" s="2">
+      <c r="H113">
+        <v>999999</v>
+      </c>
+      <c r="I113">
         <v>12.296659149648207</v>
       </c>
-      <c r="J113" s="2">
+      <c r="J113">
         <v>28650629.315948449</v>
       </c>
-      <c r="K113" s="2">
+      <c r="K113">
         <v>368.59414108929036</v>
       </c>
-      <c r="L113" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M113" s="2">
+      <c r="L113">
+        <v>999999</v>
+      </c>
+      <c r="M113">
         <v>5.2306498590838952</v>
       </c>
-      <c r="N113" s="2">
+      <c r="N113">
         <v>20528022.738592926</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" t="s">
         <v>237</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s">
         <v>238</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114">
         <v>123.43260930358512</v>
       </c>
-      <c r="D114" s="2">
-        <v>999999</v>
-      </c>
-      <c r="E114" s="2">
+      <c r="D114">
+        <v>999999</v>
+      </c>
+      <c r="E114">
         <v>95.250013849403942</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114">
         <v>47976174.416599534</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114">
         <v>227.42078626396452</v>
       </c>
-      <c r="H114" s="2">
-        <v>999999</v>
-      </c>
-      <c r="I114" s="2">
+      <c r="H114">
+        <v>999999</v>
+      </c>
+      <c r="I114">
         <v>22.820453225594584</v>
       </c>
-      <c r="J114" s="2">
+      <c r="J114">
         <v>26984889.599634849</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114">
         <v>270.53211533625756</v>
       </c>
-      <c r="L114" s="2">
-        <v>999999</v>
-      </c>
-      <c r="M114" s="2">
+      <c r="L114">
+        <v>999999</v>
+      </c>
+      <c r="M114">
         <v>10.214999748051284</v>
       </c>
-      <c r="N114" s="2">
+      <c r="N114">
         <v>19322372.886765461</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N114" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Inputdata.xlsx
+++ b/Inputdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Code\hydro_opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754F76C-FF04-4674-B1CF-9E654AF4C0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2DAD4A-6DAC-4C89-88A2-1E7AE0100BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
